--- a/data/output/FV2404_FV2310/UTILMD/44002.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/44002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10048" uniqueCount="700">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10069" uniqueCount="700">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2226,6 +2226,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U435" totalsRowShown="0">
+  <autoFilter ref="A1:U435"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2515,7 +2545,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U435"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -23823,5 +23856,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/44002.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/44002.xlsx
@@ -3911,7 +3911,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6225,7 +6225,7 @@
         <v>654</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6445,7 +6445,7 @@
         <v>655</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6665,7 +6665,7 @@
         <v>656</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -6885,7 +6885,7 @@
         <v>657</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -7213,7 +7213,7 @@
         <v>658</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -7433,7 +7433,7 @@
         <v>659</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -7649,7 +7649,7 @@
         <v>660</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -7807,7 +7807,7 @@
         <v>661</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -8611,7 +8611,7 @@
         <v>665</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -8829,7 +8829,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -9317,7 +9317,7 @@
         <v>666</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -9895,7 +9895,7 @@
         <v>668</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -10157,7 +10157,7 @@
         <v>670</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -10419,7 +10419,7 @@
         <v>672</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -11167,7 +11167,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -11363,7 +11363,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -11561,7 +11561,7 @@
         <v>665</v>
       </c>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -12453,7 +12453,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -13029,7 +13029,7 @@
         <v>675</v>
       </c>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -13441,7 +13441,7 @@
         <v>676</v>
       </c>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -13589,7 +13589,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -13889,7 +13889,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -14429,7 +14429,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -14831,7 +14831,7 @@
         <v>680</v>
       </c>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -15283,7 +15283,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -15707,7 +15707,7 @@
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -16009,7 +16009,7 @@
         <v>682</v>
       </c>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -16157,7 +16157,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -16315,7 +16315,7 @@
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="4"/>
-      <c r="M241" s="2" t="s">
+      <c r="M241" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N241" s="2" t="s">
@@ -16943,7 +16943,7 @@
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -18127,7 +18127,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="4"/>
-      <c r="M275" s="2" t="s">
+      <c r="M275" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N275" s="2" t="s">
@@ -18281,7 +18281,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" s="4"/>
-      <c r="M278" s="2" t="s">
+      <c r="M278" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N278" s="2" t="s">
@@ -18583,7 +18583,7 @@
         <v>683</v>
       </c>
       <c r="L284" s="4"/>
-      <c r="M284" s="2" t="s">
+      <c r="M284" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N284" s="2" t="s">
@@ -18731,7 +18731,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -18889,7 +18889,7 @@
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -19035,7 +19035,7 @@
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="4"/>
-      <c r="M293" s="2" t="s">
+      <c r="M293" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N293" s="2" t="s">
@@ -19191,7 +19191,7 @@
         <v>683</v>
       </c>
       <c r="L296" s="4"/>
-      <c r="M296" s="2" t="s">
+      <c r="M296" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N296" s="2" t="s">
@@ -19339,7 +19339,7 @@
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -19493,7 +19493,7 @@
       </c>
       <c r="K302" s="2"/>
       <c r="L302" s="4"/>
-      <c r="M302" s="2" t="s">
+      <c r="M302" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N302" s="2" t="s">
@@ -19639,7 +19639,7 @@
       </c>
       <c r="K305" s="2"/>
       <c r="L305" s="4"/>
-      <c r="M305" s="2" t="s">
+      <c r="M305" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N305" s="2" t="s">
@@ -19797,7 +19797,7 @@
       </c>
       <c r="K308" s="2"/>
       <c r="L308" s="4"/>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N308" s="2" t="s">
@@ -20007,7 +20007,7 @@
         <v>684</v>
       </c>
       <c r="L312" s="4"/>
-      <c r="M312" s="2" t="s">
+      <c r="M312" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N312" s="2" t="s">
@@ -20157,7 +20157,7 @@
         <v>685</v>
       </c>
       <c r="L315" s="4"/>
-      <c r="M315" s="2" t="s">
+      <c r="M315" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N315" s="2" t="s">
@@ -20375,7 +20375,7 @@
       </c>
       <c r="K319" s="2"/>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -20537,7 +20537,7 @@
       </c>
       <c r="K322" s="2"/>
       <c r="L322" s="4"/>
-      <c r="M322" s="2" t="s">
+      <c r="M322" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N322" s="2" t="s">
@@ -20755,7 +20755,7 @@
         <v>688</v>
       </c>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -21167,7 +21167,7 @@
         <v>688</v>
       </c>
       <c r="L334" s="4"/>
-      <c r="M334" s="2" t="s">
+      <c r="M334" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N334" s="2" t="s">
@@ -21525,7 +21525,7 @@
         <v>689</v>
       </c>
       <c r="L341" s="4"/>
-      <c r="M341" s="2" t="s">
+      <c r="M341" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N341" s="2" t="s">
@@ -21725,7 +21725,7 @@
         <v>690</v>
       </c>
       <c r="L345" s="4"/>
-      <c r="M345" s="2" t="s">
+      <c r="M345" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N345" s="2" t="s">
@@ -21873,7 +21873,7 @@
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="4"/>
-      <c r="M348" s="2" t="s">
+      <c r="M348" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N348" s="2" t="s">
@@ -22027,7 +22027,7 @@
       </c>
       <c r="K351" s="2"/>
       <c r="L351" s="4"/>
-      <c r="M351" s="2" t="s">
+      <c r="M351" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N351" s="2" t="s">
@@ -22173,7 +22173,7 @@
       </c>
       <c r="K354" s="2"/>
       <c r="L354" s="4"/>
-      <c r="M354" s="2" t="s">
+      <c r="M354" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N354" s="2" t="s">
@@ -22331,7 +22331,7 @@
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -22703,7 +22703,7 @@
         <v>683</v>
       </c>
       <c r="L364" s="4"/>
-      <c r="M364" s="2" t="s">
+      <c r="M364" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N364" s="2" t="s">
@@ -22993,7 +22993,7 @@
       </c>
       <c r="K370" s="2"/>
       <c r="L370" s="4"/>
-      <c r="M370" s="2" t="s">
+      <c r="M370" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N370" s="2" t="s">
@@ -23153,7 +23153,7 @@
         <v>692</v>
       </c>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -23297,7 +23297,7 @@
       </c>
       <c r="K376" s="2"/>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -23763,7 +23763,7 @@
       </c>
       <c r="K385" s="2"/>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -24185,7 +24185,7 @@
         <v>694</v>
       </c>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -24501,7 +24501,7 @@
         <v>695</v>
       </c>
       <c r="L399" s="4"/>
-      <c r="M399" s="2" t="s">
+      <c r="M399" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N399" s="2" t="s">
@@ -24659,7 +24659,7 @@
         <v>696</v>
       </c>
       <c r="L402" s="4"/>
-      <c r="M402" s="2" t="s">
+      <c r="M402" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N402" s="2" t="s">
@@ -25191,7 +25191,7 @@
         <v>698</v>
       </c>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -25611,7 +25611,7 @@
         <v>700</v>
       </c>
       <c r="L420" s="4"/>
-      <c r="M420" s="2" t="s">
+      <c r="M420" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N420" s="2" t="s">
@@ -26145,7 +26145,7 @@
       </c>
       <c r="K430" s="2"/>
       <c r="L430" s="4"/>
-      <c r="M430" s="2" t="s">
+      <c r="M430" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N430" s="2" t="s">
@@ -26305,7 +26305,7 @@
       </c>
       <c r="K433" s="2"/>
       <c r="L433" s="4"/>
-      <c r="M433" s="2" t="s">
+      <c r="M433" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N433" s="2"/>
